--- a/data/trans_dic/DC_R-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/DC_R-Estudios-trans_dic.xlsx
@@ -570,7 +570,7 @@
         <v>0.5876711145076912</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>0.4925401517593485</v>
+        <v>0.4925401517593483</v>
       </c>
     </row>
     <row r="5">
@@ -581,13 +581,13 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.3193261030699746</v>
+        <v>0.3206017505086829</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.5614904909548474</v>
+        <v>0.5596978800192431</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.4704819119691013</v>
+        <v>0.4681033311023357</v>
       </c>
     </row>
     <row r="6">
@@ -598,13 +598,13 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.393657423141973</v>
+        <v>0.3961547476922131</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.6147229781006003</v>
+        <v>0.615337970099436</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.5157751054478201</v>
+        <v>0.5153113522223228</v>
       </c>
     </row>
     <row r="7">
@@ -619,10 +619,10 @@
         </is>
       </c>
       <c r="C7" s="5" t="n">
-        <v>0.2140695825467844</v>
+        <v>0.2140695825467845</v>
       </c>
       <c r="D7" s="5" t="n">
-        <v>0.3590043319999963</v>
+        <v>0.3590043319999962</v>
       </c>
       <c r="E7" s="5" t="n">
         <v>0.285562799853441</v>
@@ -636,13 +636,13 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.1964577935709259</v>
+        <v>0.1976516906356367</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.3402295995719405</v>
+        <v>0.3393429626110355</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.27128229944758</v>
+        <v>0.2722225484191751</v>
       </c>
     </row>
     <row r="9">
@@ -653,13 +653,13 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.2350976116107968</v>
+        <v>0.2340829785239013</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.3784534714286271</v>
+        <v>0.3787805264620521</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.2987728432180253</v>
+        <v>0.2989103573590422</v>
       </c>
     </row>
     <row r="10">
@@ -674,7 +674,7 @@
         </is>
       </c>
       <c r="C10" s="5" t="n">
-        <v>0.1696460790971756</v>
+        <v>0.1696460790971755</v>
       </c>
       <c r="D10" s="5" t="n">
         <v>0.3394346558069904</v>
@@ -691,13 +691,13 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.1437656538369596</v>
+        <v>0.1454630130368647</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.3084441666444365</v>
+        <v>0.3074995756475364</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.2328990812019637</v>
+        <v>0.233247262427047</v>
       </c>
     </row>
     <row r="12">
@@ -708,13 +708,13 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.1991294993348461</v>
+        <v>0.2011478631091262</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.3714046399895761</v>
+        <v>0.3688380714239227</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.2765863030328341</v>
+        <v>0.280206788772567</v>
       </c>
     </row>
     <row r="13">
@@ -735,7 +735,7 @@
         <v>0.4055647227685689</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>0.3196351426689848</v>
+        <v>0.3196351426689847</v>
       </c>
     </row>
     <row r="14">
@@ -746,13 +746,13 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.2142046921986694</v>
+        <v>0.2149451945190009</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.3911172320332473</v>
+        <v>0.3916555168996511</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.3087726095074566</v>
+        <v>0.3090208327946065</v>
       </c>
     </row>
     <row r="15">
@@ -763,13 +763,13 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.2452618930212798</v>
+        <v>0.2431755157127316</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.4205151225472263</v>
+        <v>0.420248019578204</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.3296038618754972</v>
+        <v>0.3305535157024231</v>
       </c>
     </row>
     <row r="16">
@@ -910,13 +910,13 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>184739</v>
+        <v>185477</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>461567</v>
+        <v>460093</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>658941</v>
+        <v>655610</v>
       </c>
     </row>
     <row r="7">
@@ -927,13 +927,13 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>227742</v>
+        <v>229187</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>505326</v>
+        <v>505831</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>722378</v>
+        <v>721728</v>
       </c>
     </row>
     <row r="8">
@@ -982,13 +982,13 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>438212</v>
+        <v>440875</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>738772</v>
+        <v>736847</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>1194174</v>
+        <v>1198312</v>
       </c>
     </row>
     <row r="11">
@@ -999,13 +999,13 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>524401</v>
+        <v>522138</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>821771</v>
+        <v>822481</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>1315186</v>
+        <v>1315791</v>
       </c>
     </row>
     <row r="12">
@@ -1054,13 +1054,13 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>102302</v>
+        <v>103510</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>226669</v>
+        <v>225974</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>336880</v>
+        <v>337384</v>
       </c>
     </row>
     <row r="15">
@@ -1071,13 +1071,13 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>141698</v>
+        <v>143134</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>272937</v>
+        <v>271051</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>400072</v>
+        <v>405309</v>
       </c>
     </row>
     <row r="16">
@@ -1126,13 +1126,13 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>754147</v>
+        <v>756754</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>1458205</v>
+        <v>1460212</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>2238290</v>
+        <v>2240089</v>
       </c>
     </row>
     <row r="19">
@@ -1143,13 +1143,13 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>863489</v>
+        <v>856144</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>1567809</v>
+        <v>1566814</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>2389295</v>
+        <v>2396179</v>
       </c>
     </row>
     <row r="20">
